--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165497.3654605722</v>
+        <v>227275.807354436</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17258361.42094467</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>492028.9342484436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8314789.908037341</v>
+        <v>8315083.312122287</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>316.0659616274502</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>259.6243110138698</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>137.8413084154398</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>64.58216279976261</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.26597368195073</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,7 +902,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>73.62552491720905</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1063,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>223.2231268414896</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>112.7906815870353</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>73.77648156615774</v>
+        <v>362.0169156563304</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1148,7 +1148,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>144.493775385548</v>
       </c>
       <c r="W10" t="n">
-        <v>71.89584921017691</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.70477936198307</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>206.4855017772239</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>136.0564930767003</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1658,13 +1658,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>206.485501777225</v>
       </c>
       <c r="V14" t="n">
-        <v>88.01364999380176</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.78001549303708</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9521757218121</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.70477936198403</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573291</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>103.3456594571965</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>30.11740084111585</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>91.39226931002275</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225797</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,10 +2488,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>24.3431845617052</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907133</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>28.46824604904467</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>82.62483121292206</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3196,7 +3196,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>171.793117768437</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886993</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765603</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781978</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>152.6805156286987</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407902</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886993</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765603</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>26.24351759540781</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781978</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407902</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886993</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765603</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>39.43065698203307</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>24.62703520776762</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781978</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407902</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791304972</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886993</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765603</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>31.24391673888123</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>26.2435175954083</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781978</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407902</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1357.762053393192</v>
+        <v>1263.208490437124</v>
       </c>
       <c r="C2" t="n">
-        <v>1323.65998461702</v>
+        <v>1229.106421660951</v>
       </c>
       <c r="D2" t="n">
-        <v>1291.790603831868</v>
+        <v>793.1966368353955</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>763.4622960340947</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>739.6352704837066</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805626</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797683</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756278</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1966.856899104205</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1547.714435683516</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1285.467656881627</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397423</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>446.7326829940199</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.8381257054811</v>
+        <v>526.7806337295196</v>
       </c>
       <c r="C4" t="n">
-        <v>187.8381257054811</v>
+        <v>354.2189222127446</v>
       </c>
       <c r="D4" t="n">
-        <v>187.8381257054811</v>
+        <v>188.3409294142673</v>
       </c>
       <c r="E4" t="n">
-        <v>187.8381257054811</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="F4" t="n">
-        <v>187.8381257054811</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="G4" t="n">
-        <v>187.8381257054811</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>200.0427573423609</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>618.252639110322</v>
       </c>
       <c r="M4" t="n">
-        <v>930.0072868842942</v>
+        <v>1077.736506291235</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1519.995309448879</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1939.664558674661</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645003</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214707</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2028.825591091159</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1750.392590344264</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1463.437082214695</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>1191.410677800986</v>
       </c>
       <c r="X4" t="n">
-        <v>187.8381257054811</v>
+        <v>946.0189231343986</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.8381257054811</v>
+        <v>718.5992524485068</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.8932738874814</v>
+        <v>866.1045910388293</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>832.0025222626567</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>800.1331414775053</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>1033.105672808467</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X5" t="n">
-        <v>613.9632093877782</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.6770856874316</v>
+        <v>1292.404161523737</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>815.8501487926407</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>643.2884372758656</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>477.4104444773883</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>2039.462105407385</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.750429333523</v>
+        <v>1752.506597277815</v>
       </c>
       <c r="W7" t="n">
-        <v>1418.750429333523</v>
+        <v>1480.480192864107</v>
       </c>
       <c r="X7" t="n">
-        <v>1418.750429333523</v>
+        <v>1235.08843819752</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1007.668767511628</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1810.955835183662</v>
+        <v>2407.571603271173</v>
       </c>
       <c r="C8" t="n">
-        <v>1736.434136631988</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>1300.524351806432</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>866.7496069647275</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>438.8821773739352</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>37.48434599719913</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>37.48434599719913</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>37.06755662433913</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>37.06755662433913</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>495.7785698505359</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>954.4895830767325</v>
+        <v>518.3865980530361</v>
       </c>
       <c r="M8" t="n">
-        <v>1225.512753237703</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N8" t="n">
-        <v>1225.512753237703</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="O8" t="n">
-        <v>1225.512753237703</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P8" t="n">
-        <v>1225.512753237703</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1684.2237664639</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1853.377831216957</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1853.377831216957</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1853.377831216957</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1853.377831216957</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1853.377831216957</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>1852.562780668394</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.460721288109</v>
+        <v>2434.076489375619</v>
       </c>
       <c r="Y8" t="n">
-        <v>1833.215001628166</v>
+        <v>2429.830769715676</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>543.2393016156319</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.7828404522742</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.6925515988275</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.5721369257812</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>164.1882985419428</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.80320880812667</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>37.06755662433913</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>37.06755662433913</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J9" t="n">
-        <v>37.06755662433913</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>37.06755662433913</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>37.06755662433913</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>37.06755662433913</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>207.0015003302179</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>665.7125135564146</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1124.423526782611</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1583.134540008808</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.307318103148</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.851880551531</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.673236882133</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.336689882101</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1131.2191719441</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.8964176772943</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>791.0289819161743</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.5432026953951</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1116.12571723622</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>943.5640057194454</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>777.6860129209681</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>607.9280091717054</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>431.2209551334616</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>265.6296801592893</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>125.7275058496638</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>37.06755662433913</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>37.06755662433913</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>37.06755662433913</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>455.2774383923002</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>643.9428848631887</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1086.201688020833</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1505.870937246615</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1853.377831216957</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1853.377831216957</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1853.377831216957</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1853.377831216957</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1853.377831216957</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1853.377831216957</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1853.377831216957</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1780.755761307687</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1535.364006641099</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>1307.944335955208</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.314042074141</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.171569257564</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.261784432008</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.487039590304</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6196099995113</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2217786227752</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.09162406599151</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>96.67483469313152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K11" t="n">
-        <v>96.67483469313152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L11" t="n">
-        <v>195.9745886472803</v>
+        <v>199.031688046465</v>
       </c>
       <c r="M11" t="n">
-        <v>1353.022423857831</v>
+        <v>1356.079523257016</v>
       </c>
       <c r="N11" t="n">
-        <v>2478.753407294278</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O11" t="n">
-        <v>3458.933073864584</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P11" t="n">
-        <v>4287.242948697981</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q11" t="n">
-        <v>4833.741734656575</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656575</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4803.736907018209</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.736907018209</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.514604335225</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.897654269052</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.042199680085</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.899736259395</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.613612559049</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844243</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210666</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676199</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945736</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107352</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>138.410486876919</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
-        <v>96.67483469313152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J12" t="n">
-        <v>96.67483469313152</v>
+        <v>421.2943016473275</v>
       </c>
       <c r="K12" t="n">
-        <v>96.67483469313152</v>
+        <v>421.2943016473275</v>
       </c>
       <c r="L12" t="n">
-        <v>96.67483469313152</v>
+        <v>421.2943016473275</v>
       </c>
       <c r="M12" t="n">
-        <v>96.67483469313152</v>
+        <v>421.2943016473275</v>
       </c>
       <c r="N12" t="n">
-        <v>96.67483469313152</v>
+        <v>421.2943016473275</v>
       </c>
       <c r="O12" t="n">
-        <v>282.279712966327</v>
+        <v>421.2943016473275</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.914596171941</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849667</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641875</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.1708717700628</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6091602532878</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7311674548105</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>438.9731637055477</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>262.2661096673039</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.67483469313152</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
-        <v>96.67483469313152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578214</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
-        <v>458.012974428957</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.222856196918</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535475</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.334444595931</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.093075893928</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.213629472383</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.782828384807</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.827320255238</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.800915841529</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.409161174942</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.98949048905</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.314042074141</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.171569257564</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.261784432008</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.487039590304</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6196099995113</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2217786227752</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.09162406599151</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313152</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J14" t="n">
-        <v>96.67483469313152</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K14" t="n">
-        <v>96.67483469313152</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L14" t="n">
-        <v>195.9745886472803</v>
+        <v>199.0316880464659</v>
       </c>
       <c r="M14" t="n">
-        <v>1353.022423857831</v>
+        <v>1356.079523257017</v>
       </c>
       <c r="N14" t="n">
-        <v>2478.753407294278</v>
+        <v>2481.810506693464</v>
       </c>
       <c r="O14" t="n">
-        <v>3458.933073864584</v>
+        <v>3461.99017326377</v>
       </c>
       <c r="P14" t="n">
-        <v>4287.242948697981</v>
+        <v>4290.300048097166</v>
       </c>
       <c r="Q14" t="n">
-        <v>4833.741734656575</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656575</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S14" t="n">
-        <v>4750.089860840412</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T14" t="n">
-        <v>4530.022633713451</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="U14" t="n">
-        <v>4270.800331030468</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.897654269051</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.042199680084</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.899736259395</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.613612559048</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844243</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210666</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676199</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945736</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107352</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>138.410486876919</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313152</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I15" t="n">
-        <v>96.67483469313152</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J15" t="n">
-        <v>96.67483469313152</v>
+        <v>421.2943016473275</v>
       </c>
       <c r="K15" t="n">
-        <v>96.67483469313152</v>
+        <v>1102.027821717705</v>
       </c>
       <c r="L15" t="n">
-        <v>96.67483469313152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>96.67483469313152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>96.67483469313152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>282.279712966327</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.914596171941</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849667</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641875</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.168672110744</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6069605939689</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7289677954916</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>297.9709640462289</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F16" t="n">
-        <v>297.9709640462289</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>297.9709640462289</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H16" t="n">
-        <v>158.0687897366033</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313152</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578214</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
-        <v>458.012974428957</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.222856196918</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.706723377831</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535475</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761257</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731599</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.334444595931</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.093075893928</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.213629472383</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.780628725488</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.825120595918</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.79871618221</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.406961515623</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>997.9872908297311</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.314042074141</v>
+        <v>2252.65686816857</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.171569257564</v>
+        <v>1814.514395351993</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.261784432008</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.487039590304</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6196099995113</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2217786227753</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.09162406599152</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I17" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J17" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K17" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L17" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="M17" t="n">
-        <v>1183.868359104776</v>
+        <v>1186.92545850396</v>
       </c>
       <c r="N17" t="n">
-        <v>2309.599342541223</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="O17" t="n">
-        <v>3289.779009111529</v>
+        <v>3292.836108510714</v>
       </c>
       <c r="P17" t="n">
-        <v>4118.088883944925</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q17" t="n">
-        <v>4664.58766990352</v>
+        <v>4667.644769302704</v>
       </c>
       <c r="R17" t="n">
-        <v>4833.741734656576</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S17" t="n">
-        <v>4803.736907018208</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T17" t="n">
-        <v>4803.736907018208</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.514604335224</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.897654269051</v>
+        <v>3911.24048036348</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.042199680084</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.899736259395</v>
+        <v>3087.242562353824</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.613612559048</v>
+        <v>2678.956438653478</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.8465796844243</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C18" t="n">
-        <v>496.3901185210666</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
-        <v>401.2998296676199</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E18" t="n">
-        <v>307.1794149945736</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7955766107352</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4104868769191</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I18" t="n">
-        <v>96.67483469313153</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>96.67483469313153</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="K18" t="n">
-        <v>96.67483469313153</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="L18" t="n">
-        <v>96.67483469313153</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="M18" t="n">
-        <v>96.67483469313153</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="N18" t="n">
-        <v>96.67483469313153</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="O18" t="n">
-        <v>282.279712966327</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="P18" t="n">
-        <v>1102.002879445525</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.741818077601</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.914596171941</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S18" t="n">
-        <v>1696.459158620323</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T18" t="n">
-        <v>1566.280514950925</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.943967950893</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.826450012893</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W18" t="n">
-        <v>1005.503695746087</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6362599849667</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.1504807641875</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.1708717700628</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6091602532878</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D19" t="n">
-        <v>608.7311674548105</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>438.9731637055477</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>262.2661096673039</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G19" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H19" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I19" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J19" t="n">
-        <v>183.2545198578214</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
-        <v>458.012974428957</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2228561969181</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.706723377831</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
-        <v>1777.965526535476</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.634775761257</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P19" t="n">
-        <v>2545.141669731599</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2713.334444595931</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.334444595931</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.093075893928</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.213629472384</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.780628725489</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.825120595919</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.798716182211</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.409161174942</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.98949048905</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.897252701281</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.754779884704</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.844995059148</v>
+        <v>1648.906137047133</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.070250217444</v>
+        <v>1215.131392205428</v>
       </c>
       <c r="F20" t="n">
-        <v>787.2028206266514</v>
+        <v>787.2639626146356</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8049892499153</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I20" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J20" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K20" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L20" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="M20" t="n">
-        <v>1253.722669903682</v>
+        <v>1186.92545850396</v>
       </c>
       <c r="N20" t="n">
-        <v>2379.453653340129</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="O20" t="n">
-        <v>3359.633319910436</v>
+        <v>3292.836108510714</v>
       </c>
       <c r="P20" t="n">
-        <v>4187.943194743832</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q20" t="n">
-        <v>4664.58766990352</v>
+        <v>4667.644769302704</v>
       </c>
       <c r="R20" t="n">
-        <v>4833.741734656576</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S20" t="n">
-        <v>4833.741734656576</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.320117645349</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.097814962365</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.480864896192</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.625410307225</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.482946886536</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.196823186189</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.8465796844243</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C21" t="n">
-        <v>496.3901185210666</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
-        <v>401.2998296676199</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E21" t="n">
-        <v>307.1794149945736</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F21" t="n">
-        <v>223.7955766107352</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4104868769191</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I21" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J21" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="K21" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="L21" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="M21" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="N21" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="O21" t="n">
-        <v>282.279712966327</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="P21" t="n">
-        <v>1102.002879445525</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.741818077601</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.914596171941</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S21" t="n">
-        <v>1696.459158620323</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T21" t="n">
-        <v>1566.280514950925</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.943967950893</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.826450012893</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W21" t="n">
-        <v>1005.503695746087</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6362599849667</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.1504807641875</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.1708717700628</v>
+        <v>806.2298140987276</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6091602532878</v>
+        <v>633.6681025819526</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7311674548105</v>
+        <v>467.7901097834751</v>
       </c>
       <c r="E22" t="n">
-        <v>438.9731637055477</v>
+        <v>298.0321060342123</v>
       </c>
       <c r="F22" t="n">
-        <v>262.2661096673039</v>
+        <v>121.3250519959685</v>
       </c>
       <c r="G22" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H22" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I22" t="n">
-        <v>96.67483469313153</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J22" t="n">
-        <v>183.2545198578214</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
-        <v>458.012974428957</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2228561969181</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.706723377831</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
-        <v>1777.965526535476</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.634775761257</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P22" t="n">
-        <v>2545.141669731599</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2713.334444595931</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.334444595931</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.095275553247</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.215829131702</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.782828384807</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.827320255238</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.800915841529</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.409161174942</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.98949048905</v>
+        <v>998.0484328177147</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.756877347711</v>
+        <v>811.7546776883923</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>639.1929661716173</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>473.31497337314</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238773</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856334</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>126.8499155856334</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6151,7 +6151,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,22 +6230,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1021.773653488281</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2178.821488698832</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883921</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731398</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
         <v>444.5591692831957</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957672</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789921</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805148</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>441.380517031252</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750507</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711747</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>299.7413736002001</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>299.7413736002001</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>1456.789208810751</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O36" t="n">
-        <v>287.7381299604466</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.5453418998819</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>778.4004197559668</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>612.9392163303496</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>443.5980019539471</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>267.3077372885633</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2563.236244375628</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2317.773587326943</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2039.757375952908</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1885.534632893617</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.925017852768</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.950052559041</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.947171246009</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750506</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711745</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>299.7413736002001</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>1456.789208810751</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>287.7381299604466</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.545341899882</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>778.4004197559671</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>612.9392163303498</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>443.5980019539471</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>267.3077372885633</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840581</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2695.552220073046</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2450.089563024361</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2172.073351650326</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1885.534632893617</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.925017852769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.950052559041</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.947171246009</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.8276588750512</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>299.7413736001993</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>299.7413736001993</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>1456.78920881075</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2582.520192247197</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3562.699858817503</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4391.0097336509</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4937.508519609494</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.662584362551</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.777062165146</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.971548855023</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L42" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M42" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N42" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O42" t="n">
-        <v>287.7381299604466</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>818.2293662024651</v>
+        <v>811.7546776883928</v>
       </c>
       <c r="C43" t="n">
-        <v>778.4004197559672</v>
+        <v>639.1929661716177</v>
       </c>
       <c r="D43" t="n">
-        <v>612.93921633035</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>443.5980019539471</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>267.3077372885633</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2563.236244375629</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2317.773587326944</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U43" t="n">
-        <v>2039.75737595291</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>1753.2186571962</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1481.609042155352</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1236.634076861624</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1009.631195548592</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.854933458239</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2088.129250014522</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.636254561827</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.278299092982</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>791.8276588750508</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>390.8466168711747</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436387</v>
       </c>
       <c r="I44" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.133251687251</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K44" t="n">
-        <v>102.133251687251</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L44" t="n">
-        <v>468.8954383532557</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1625.943273563807</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>2751.674257000253</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3731.85392357056</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4560.163798403956</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5106.662584362551</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.662584362551</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.777062165146</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.971548855023</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4182.771388161709</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3359.607048897773</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2951.737714570287</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L45" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M45" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N45" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O45" t="n">
-        <v>287.7381299604466</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.545341899882</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C46" t="n">
-        <v>778.4004197559671</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>612.9392163303497</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>443.598001953947</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>267.3077372885633</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.552220073046</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2450.089563024361</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2172.073351650326</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1885.534632893617</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.925017852768</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.950052559041</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.947171246009</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>479.9987875054302</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,13 +8052,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>401.6418166099326</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.4600735274487</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>117.6925219988882</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>463.3444578042391</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>463.3444578042391</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M8" t="n">
-        <v>273.7607779403743</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>463.344457804239</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>171.6504481877564</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>463.3444578042391</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>463.3444578042391</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>463.3444578042393</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>190.5711580514026</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>100.3027817718675</v>
+        <v>103.3290013791412</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>100.3027817718675</v>
+        <v>103.3290013791421</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -9003,13 +9003,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1098.175277183479</v>
+        <v>1101.201496790753</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9237,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790753</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9419,7 +9419,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>481.4590658178668</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>928.8008214318197</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9893,10 +9893,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>199.6041635484335</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234299</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>199.6041635484335</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234299</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -11060,10 +11060,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>199.6041635484326</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234299</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>370.4668552181865</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234299</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>53.11057571601829</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>50.14457787892934</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>50.14457787892832</v>
       </c>
       <c r="V14" t="n">
-        <v>270.9771305717099</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>26.99333424003433</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>267.5985112554878</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>53.11057571601732</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>139.5921776627251</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.412621479131395</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>187.7491540145759</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>267.598511255489</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>114.159968004824</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>160.7958207444072</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3.146865729424294</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825393998</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.7910216025504</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>130.9928159404437</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825393998</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.7910216025504</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>130.992815940444</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>130.9928159404428</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>139.5921776627249</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825393998</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.7910216025504</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825393998</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.7910216025504</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>130.9928159404436</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>694770.7312477857</v>
+        <v>695095.3597110551</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>694770.7312477856</v>
+        <v>695095.3597110552</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>694770.7312477859</v>
+        <v>695095.3597110553</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>694770.7312477859</v>
+        <v>695095.3597110552</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>724429.1781888594</v>
+        <v>724429.1781888593</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>724429.1781888594</v>
+        <v>724429.1781888596</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>724753.8066521287</v>
+        <v>724429.1781888594</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>724753.8066521287</v>
+        <v>724429.1781888594</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>724753.8066521287</v>
+        <v>724429.1781888594</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>724753.8066521287</v>
+        <v>724429.1781888593</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>201055.2449589032</v>
       </c>
       <c r="E2" t="n">
-        <v>189482.9267039415</v>
+        <v>189571.4617393786</v>
       </c>
       <c r="F2" t="n">
-        <v>189482.9267039416</v>
+        <v>189571.4617393787</v>
       </c>
       <c r="G2" t="n">
-        <v>189482.9267039416</v>
+        <v>189571.4617393787</v>
       </c>
       <c r="H2" t="n">
-        <v>189482.9267039416</v>
+        <v>189571.4617393787</v>
       </c>
       <c r="I2" t="n">
         <v>197571.5940515071</v>
@@ -26344,16 +26344,16 @@
         <v>197571.5940515071</v>
       </c>
       <c r="M2" t="n">
-        <v>197660.1290869442</v>
+        <v>197571.5940515071</v>
       </c>
       <c r="N2" t="n">
-        <v>197660.1290869442</v>
+        <v>197571.5940515071</v>
       </c>
       <c r="O2" t="n">
-        <v>197660.1290869443</v>
+        <v>197571.5940515071</v>
       </c>
       <c r="P2" t="n">
-        <v>197660.1290869442</v>
+        <v>197571.5940515071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039027</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390683</v>
       </c>
       <c r="D3" t="n">
-        <v>12129.66670626077</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>222467.7733902987</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18567.95236517201</v>
+        <v>18364.7156328394</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856131</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784528</v>
       </c>
       <c r="L3" t="n">
-        <v>9882.84929451194</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>185612.3039143761</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.383971508</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>160231.3492394511</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.320790547665</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="F4" t="n">
-        <v>773.320790547665</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="G4" t="n">
-        <v>773.320790547665</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="H4" t="n">
-        <v>773.3207905476651</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26445,19 +26445,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>1222.551252183167</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>1222.551252183166</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>1222.551252183166</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>1222.551252183167</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61798.94303449774</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677994</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677994</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="G5" t="n">
-        <v>73472.87436677996</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="H5" t="n">
-        <v>73472.87436677996</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77655.95995743987</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169728.9371077889</v>
+        <v>-201394.5317746494</v>
       </c>
       <c r="C6" t="n">
-        <v>-27537.63644807896</v>
+        <v>-4002.230195011944</v>
       </c>
       <c r="D6" t="n">
-        <v>-33104.71402130634</v>
+        <v>13338.31417889487</v>
       </c>
       <c r="E6" t="n">
-        <v>-107231.0418436847</v>
+        <v>-46533.19642434896</v>
       </c>
       <c r="F6" t="n">
-        <v>115236.731546614</v>
+        <v>115201.8787857655</v>
       </c>
       <c r="G6" t="n">
-        <v>115236.731546614</v>
+        <v>115201.8787857655</v>
       </c>
       <c r="H6" t="n">
-        <v>115236.731546614</v>
+        <v>115201.8787857655</v>
       </c>
       <c r="I6" t="n">
-        <v>100479.07068976</v>
+        <v>100659.08308271</v>
       </c>
       <c r="J6" t="n">
-        <v>8032.557709941801</v>
+        <v>-41584.03077006376</v>
       </c>
       <c r="K6" t="n">
-        <v>119047.023054932</v>
+        <v>105209.7901477041</v>
       </c>
       <c r="L6" t="n">
-        <v>109164.17376042</v>
+        <v>119023.7987155493</v>
       </c>
       <c r="M6" t="n">
-        <v>-66830.6860370549</v>
+        <v>-15966.14589745416</v>
       </c>
       <c r="N6" t="n">
-        <v>118781.6178773212</v>
+        <v>119023.7987155493</v>
       </c>
       <c r="O6" t="n">
-        <v>118781.6178773212</v>
+        <v>119023.7987155494</v>
       </c>
       <c r="P6" t="n">
-        <v>118781.6178773212</v>
+        <v>119023.7987155493</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>463.3444578042391</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664144</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664144</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1208.435433664144</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1208.435433664144</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="D4" t="n">
-        <v>39.04860028413471</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>745.0909758599047</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.82506972060128</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>39.04860028413471</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>743.4961185657972</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>39.04860028413471</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>745.0909758599047</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.9706131526085</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>144.5789514494733</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>30.21911529633036</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27552,10 +27552,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>73.92098976676661</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>370.7706010981079</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,7 +27622,7 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>330.577737546134</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>52.42554389793614</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>112.3547923919975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>359.9845665222532</v>
+        <v>71.74413243208051</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="W10" t="n">
-        <v>197.4102911593945</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791314312</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>479.9987875054302</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,13 +34772,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>401.6418166099326</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.4600735274487</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>117.6925219988882</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>463.3444578042391</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>463.3444578042391</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M8" t="n">
-        <v>273.7607779403743</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>463.344457804239</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>171.6504481877564</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>463.3444578042391</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>463.3444578042391</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>463.3444578042393</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>190.5711580514026</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>100.3027817718675</v>
+        <v>103.3290013791412</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>100.3027817718675</v>
+        <v>103.3290013791421</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1098.175277183479</v>
+        <v>1101.201496790753</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790753</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36139,7 +36139,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>481.4590658178668</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36519,16 +36519,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36598,7 +36598,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>928.8008214318197</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36613,10 +36613,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37002,10 +37002,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165075</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821539</v>
@@ -37239,13 +37239,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>199.6041635484335</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234299</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821213</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.5377398436902</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>199.6041635484335</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234299</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.8668489182121</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871731</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>199.6041635484326</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234299</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821211</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>370.4668552181865</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234299</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821211</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
